--- a/Task 3/code/NT-33A_4.xlsx
+++ b/Task 3/code/NT-33A_4.xlsx
@@ -455,9 +455,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="173" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -679,6 +679,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,10 +704,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,11 +1234,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1253,7 +1253,7 @@
       <c r="D2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       <c r="D3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="17">
         <v>0.7</v>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       <c r="D4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="17">
         <v>782</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="D5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="17">
         <v>463</v>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       <c r="D6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="17">
         <v>463</v>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       <c r="D7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="17">
         <v>13700</v>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1366,10 +1366,10 @@
       <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="17">
         <v>23801</v>
       </c>
     </row>
@@ -1383,8 +1383,8 @@
       <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24">
+      <c r="D10" s="27"/>
+      <c r="E10" s="17">
         <v>21101</v>
       </c>
     </row>
@@ -1398,8 +1398,8 @@
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24">
+      <c r="D11" s="27"/>
+      <c r="E11" s="17">
         <v>43802</v>
       </c>
     </row>
@@ -1414,8 +1414,8 @@
       <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24">
+      <c r="D12" s="27"/>
+      <c r="E12" s="17">
         <v>480</v>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       <c r="D13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="17">
         <v>-1.37</v>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="D14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="17">
         <v>726</v>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       <c r="D15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="17">
         <v>819</v>
       </c>
       <c r="I15" s="16"/>
@@ -1488,7 +1488,7 @@
       <c r="D16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="17">
         <v>-0.9</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       <c r="D17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1520,13 +1520,13 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="24"/>
-      <c r="K18" s="20" t="s">
+      <c r="E18" s="17"/>
+      <c r="K18" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -1538,11 +1538,11 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="24"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
+      <c r="E19" s="17"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -1558,13 +1558,13 @@
       <c r="D20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="24">
-        <v>0</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -1580,13 +1580,13 @@
       <c r="D21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="24">
-        <v>0</v>
-      </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
@@ -1602,13 +1602,13 @@
       <c r="D22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="17">
         <v>0.02</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -1618,15 +1618,15 @@
         <f t="shared" si="0"/>
         <v>-0.16200000000000001</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1642,13 +1642,13 @@
       <c r="D24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="25">
-        <v>0</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -1664,7 +1664,7 @@
       <c r="D25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="18">
         <v>0.7</v>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       <c r="D26" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="18">
         <v>-4.1500000000000002E-2</v>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       <c r="D27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="18">
         <v>-0.16200000000000001</v>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       <c r="D28" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="18">
         <v>-7.6000000000000004E-4</v>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       <c r="D29" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="18">
         <v>-2.1100000000000001E-2</v>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       <c r="D30" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="18">
         <v>-3.59</v>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       <c r="D31" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="18">
         <v>-4.3099999999999999E-2</v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       <c r="D32" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       <c r="D33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="D34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       <c r="D35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="18">
         <v>-2.8</v>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="D36" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="18">
         <v>-2.65</v>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       <c r="D37" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="18">
         <v>-152</v>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       <c r="D38" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="18">
         <v>-52.7</v>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
         <v>41</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="25">
+      <c r="E39" s="18">
         <v>2.3500000000000001E-3</v>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
         <v>42</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="25">
+      <c r="E40" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="27">
+      <c r="E41" s="20">
         <v>9.4799999999999997E-7</v>
       </c>
     </row>
@@ -1958,11 +1958,11 @@
         <f t="shared" si="1"/>
         <v>-4.51</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -1978,7 +1978,7 @@
       <c r="D43" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       <c r="D44" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="18">
         <v>0.7</v>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       <c r="D45" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="18">
         <v>-0.33800000000000002</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="D46" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="18">
         <v>-264</v>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       <c r="D47" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="18">
         <v>-18</v>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       <c r="D48" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="18">
         <v>10.6</v>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       <c r="D49" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="18">
         <v>-4.51</v>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       <c r="D50" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="18">
         <v>1.18E-2</v>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
       <c r="D51" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="18">
         <v>0.495</v>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       <c r="D52" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="18">
         <v>-0.56100000000000005</v>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       <c r="D53" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       <c r="D54" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="18">
         <v>47</v>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       <c r="D55" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="18">
         <v>0.26</v>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       <c r="D56" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="18">
         <v>0.10199999999999999</v>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       <c r="D57" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="18">
         <v>5.89</v>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
         <v>134</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>58</v>
@@ -2246,7 +2246,7 @@
       <c r="D58" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E58" s="19">
         <v>-12.6</v>
       </c>
     </row>
@@ -2273,63 +2273,63 @@
       <c r="B61" s="1">
         <v>0</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
     </row>
     <row r="64" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>

--- a/Task 3/code/NT-33A_4.xlsx
+++ b/Task 3/code/NT-33A_4.xlsx
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,7 +2238,7 @@
         <v>134</v>
       </c>
       <c r="B58" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>58</v>

--- a/Task 3/code/NT-33A_4.xlsx
+++ b/Task 3/code/NT-33A_4.xlsx
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -2238,7 +2238,7 @@
         <v>134</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>58</v>
